--- a/project/Folha de cálculo sem nome.xlsx
+++ b/project/Folha de cálculo sem nome.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="981" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" state="visible" r:id="rId2"/>
@@ -52,19 +52,19 @@
     <t xml:space="preserve">Tamanho de cada pacote (bytes)</t>
   </si>
   <si>
+    <t xml:space="preserve">2+2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4+4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6+6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8+8</t>
+  </si>
+  <si>
     <t xml:space="preserve">10+10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20+20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30+30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40+40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50+50</t>
   </si>
   <si>
     <t xml:space="preserve">VARIAR TAMANHO DAS TRAMAS</t>
@@ -312,19 +312,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:I55"/>
+  <dimension ref="B3:I69"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E53" activeCellId="0" sqref="E53"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.0867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.6071428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -393,15 +395,15 @@
         <v>7</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.573335</v>
+        <v>3.451186</v>
       </c>
       <c r="G7" s="3" t="n">
         <f aca="false">$C$7/F7</f>
-        <v>24555.2124276061</v>
+        <v>25424.3034133773</v>
       </c>
       <c r="H7" s="3" t="n">
         <f aca="false">G7/$C$8</f>
-        <v>0.63945865696891</v>
+        <v>0.662091234723368</v>
       </c>
       <c r="I7" s="3"/>
     </row>
@@ -417,15 +419,15 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.572076</v>
+        <v>3.450568</v>
       </c>
       <c r="G8" s="3" t="n">
         <f aca="false">$C$7/F8</f>
-        <v>24563.867062179</v>
+        <v>25428.8569302213</v>
       </c>
       <c r="H8" s="3" t="n">
         <f aca="false">G8/$C$8</f>
-        <v>0.639684038077577</v>
+        <v>0.662209815891181</v>
       </c>
       <c r="I8" s="3"/>
     </row>
@@ -441,15 +443,15 @@
         <v>10</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.229818</v>
+        <v>6.638646</v>
       </c>
       <c r="G9" s="3" t="n">
         <f aca="false">$C$7/F9</f>
-        <v>20744.1549494565</v>
+        <v>13217.1530158409</v>
       </c>
       <c r="H9" s="3" t="n">
         <f aca="false">G9/$C$8</f>
-        <v>0.540212368475428</v>
+        <v>0.344196693120856</v>
       </c>
       <c r="I9" s="3"/>
     </row>
@@ -461,15 +463,15 @@
         <v>10</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.835076</v>
+        <v>9.743338</v>
       </c>
       <c r="G10" s="3" t="n">
         <f aca="false">$C$7/F10</f>
-        <v>22879.3379844363</v>
+        <v>9005.53793781967</v>
       </c>
       <c r="H10" s="3" t="n">
         <f aca="false">G10/$C$8</f>
-        <v>0.595816093344695</v>
+        <v>0.23451921713072</v>
       </c>
       <c r="I10" s="3"/>
     </row>
@@ -481,15 +483,15 @@
         <v>11</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.475302</v>
+        <v>19.189605</v>
       </c>
       <c r="G11" s="3" t="n">
         <f aca="false">$C$7/F11</f>
-        <v>19606.2746156572</v>
+        <v>4572.47556684986</v>
       </c>
       <c r="H11" s="3" t="n">
         <f aca="false">G11/$C$8</f>
-        <v>0.510580068116073</v>
+        <v>0.119074884553382</v>
       </c>
       <c r="I11" s="3"/>
     </row>
@@ -501,15 +503,15 @@
         <v>11</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.469842</v>
+        <v>19.125775</v>
       </c>
       <c r="G12" s="3" t="n">
         <f aca="false">$C$7/F12</f>
-        <v>19630.2240660856</v>
+        <v>4587.735660385</v>
       </c>
       <c r="H12" s="3" t="n">
         <f aca="false">G12/$C$8</f>
-        <v>0.511203751720978</v>
+        <v>0.119472282822526</v>
       </c>
       <c r="I12" s="3"/>
     </row>
@@ -521,15 +523,15 @@
         <v>12</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.339097</v>
+        <v>25.455091</v>
       </c>
       <c r="G13" s="3" t="n">
         <f aca="false">$C$7/F13</f>
-        <v>16434.2397225598</v>
+        <v>3447.01183743558</v>
       </c>
       <c r="H13" s="3" t="n">
         <f aca="false">G13/$C$8</f>
-        <v>0.427974992774995</v>
+        <v>0.0897659332665517</v>
       </c>
       <c r="I13" s="3"/>
     </row>
@@ -541,15 +543,15 @@
         <v>12</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.638691</v>
+        <v>22.232585</v>
       </c>
       <c r="G14" s="3" t="n">
         <f aca="false">$C$7/F14</f>
-        <v>18915.6811695368</v>
+        <v>3946.63958329632</v>
       </c>
       <c r="H14" s="3" t="n">
         <f aca="false">G14/$C$8</f>
-        <v>0.492595863790022</v>
+        <v>0.102777072481675</v>
       </c>
       <c r="I14" s="3"/>
     </row>
@@ -561,15 +563,15 @@
         <v>13</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.865642</v>
+        <v>34.647686</v>
       </c>
       <c r="G15" s="3" t="n">
         <f aca="false">$C$7/F15</f>
-        <v>14958.9763575752</v>
+        <v>2532.46349554195</v>
       </c>
       <c r="H15" s="3" t="n">
         <f aca="false">G15/$C$8</f>
-        <v>0.38955667597852</v>
+        <v>0.065949570196405</v>
       </c>
       <c r="I15" s="3"/>
     </row>
@@ -581,15 +583,15 @@
         <v>13</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.888625</v>
+        <v>34.517908</v>
       </c>
       <c r="G16" s="3" t="n">
         <f aca="false">$C$7/F16</f>
-        <v>14900.5922435203</v>
+        <v>2541.98487347495</v>
       </c>
       <c r="H16" s="3" t="n">
         <f aca="false">G16/$C$8</f>
-        <v>0.388036256341676</v>
+        <v>0.0661975227467435</v>
       </c>
       <c r="I16" s="3"/>
     </row>
@@ -601,15 +603,15 @@
         <v>14</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.806677</v>
+        <v>68.920376</v>
       </c>
       <c r="G17" s="3" t="n">
         <f aca="false">$C$7/F17</f>
-        <v>12890.8717131722</v>
+        <v>1273.12131901312</v>
       </c>
       <c r="H17" s="3" t="n">
         <f aca="false">G17/$C$8</f>
-        <v>0.335699784197193</v>
+        <v>0.0331542010159666</v>
       </c>
       <c r="I17" s="3"/>
     </row>
@@ -621,15 +623,15 @@
         <v>14</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.064516</v>
+        <v>56.536943</v>
       </c>
       <c r="G18" s="3" t="n">
         <f aca="false">$C$7/F18</f>
-        <v>12420.3837885002</v>
+        <v>1551.97637764037</v>
       </c>
       <c r="H18" s="3" t="n">
         <f aca="false">G18/$C$8</f>
-        <v>0.323447494492192</v>
+        <v>0.0404160515010513</v>
       </c>
       <c r="I18" s="3"/>
     </row>
@@ -1184,13 +1186,19 @@
       <c r="C53" s="5" t="n">
         <v>87744</v>
       </c>
-      <c r="G53" s="3" t="e">
+      <c r="E53" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>212.630027</v>
+      </c>
+      <c r="G53" s="3" t="n">
         <f aca="false">$C$53/F53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H53" s="3" t="e">
+        <v>412.660437653051</v>
+      </c>
+      <c r="H53" s="3" t="n">
         <f aca="false">G53/E53</f>
-        <v>#DIV/0!</v>
+        <v>0.687767396088418</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1200,25 +1208,259 @@
       <c r="C54" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="G54" s="3" t="e">
+      <c r="E54" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>212.621419</v>
+      </c>
+      <c r="G54" s="3" t="n">
         <f aca="false">$C$53/F54</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H54" s="3" t="e">
+        <v>412.67714425328</v>
+      </c>
+      <c r="H54" s="3" t="n">
         <f aca="false">G54/E54</f>
-        <v>#DIV/0!</v>
+        <v>0.687795240422133</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G55" s="3" t="e">
+      <c r="E55" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>106.32464</v>
+      </c>
+      <c r="G55" s="3" t="n">
         <f aca="false">$C$53/F55</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H55" s="3" t="e">
+        <v>825.246151785701</v>
+      </c>
+      <c r="H55" s="3" t="n">
         <f aca="false">G55/E55</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
+        <v>0.687705126488084</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E56" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>106.324415</v>
+      </c>
+      <c r="G56" s="3" t="n">
+        <f aca="false">$C$53/F56</f>
+        <v>825.24789814268</v>
+      </c>
+      <c r="H56" s="3" t="n">
+        <f aca="false">G56/E56</f>
+        <v>0.687706581785566</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>70.895896</v>
+      </c>
+      <c r="G57" s="3" t="n">
+        <f aca="false">$C$53/F57</f>
+        <v>1237.64568826382</v>
+      </c>
+      <c r="H57" s="3" t="n">
+        <f aca="false">G57/E57</f>
+        <v>0.687580937924343</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E58" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>70.883623</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <f aca="false">$C$53/F58</f>
+        <v>1237.85997789645</v>
+      </c>
+      <c r="H58" s="3" t="n">
+        <f aca="false">G58/E58</f>
+        <v>0.687699987720248</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E59" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>54.860132</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <f aca="false">$C$53/F59</f>
+        <v>1599.4128486603</v>
+      </c>
+      <c r="H59" s="3" t="n">
+        <f aca="false">G59/E59</f>
+        <v>0.666422020275124</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E60" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>54.859799</v>
+      </c>
+      <c r="G60" s="3" t="n">
+        <f aca="false">$C$53/F60</f>
+        <v>1599.42255712603</v>
+      </c>
+      <c r="H60" s="3" t="n">
+        <f aca="false">G60/E60</f>
+        <v>0.666426065469179</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E61" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>27.45022</v>
+      </c>
+      <c r="G61" s="3" t="n">
+        <f aca="false">$C$53/F61</f>
+        <v>3196.47711384462</v>
+      </c>
+      <c r="H61" s="3" t="n">
+        <f aca="false">G61/E61</f>
+        <v>0.665932732050963</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E62" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>27.449784</v>
+      </c>
+      <c r="G62" s="3" t="n">
+        <f aca="false">$C$53/F62</f>
+        <v>3196.52788524675</v>
+      </c>
+      <c r="H62" s="3" t="n">
+        <f aca="false">G62/E62</f>
+        <v>0.665943309426406</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E63" s="0" t="n">
+        <v>9600</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>13.737626</v>
+      </c>
+      <c r="G63" s="3" t="n">
+        <f aca="false">$C$53/F63</f>
+        <v>6387.1297704567</v>
+      </c>
+      <c r="H63" s="3" t="n">
+        <f aca="false">G63/E63</f>
+        <v>0.665326017755906</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E64" s="0" t="n">
+        <v>9600</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>13.737978</v>
+      </c>
+      <c r="G64" s="3" t="n">
+        <f aca="false">$C$53/F64</f>
+        <v>6386.96611684776</v>
+      </c>
+      <c r="H64" s="3" t="n">
+        <f aca="false">G64/E64</f>
+        <v>0.665308970504975</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E65" s="0" t="n">
+        <v>19200</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>6.881091</v>
+      </c>
+      <c r="G65" s="3" t="n">
+        <f aca="false">$C$53/F65</f>
+        <v>12751.4663009107</v>
+      </c>
+      <c r="H65" s="3" t="n">
+        <f aca="false">G65/E65</f>
+        <v>0.6641388698391</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E66" s="0" t="n">
+        <v>19200</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>6.880781</v>
+      </c>
+      <c r="G66" s="3" t="n">
+        <f aca="false">$C$53/F66</f>
+        <v>12752.0407930437</v>
+      </c>
+      <c r="H66" s="3" t="n">
+        <f aca="false">G66/E66</f>
+        <v>0.664168791304359</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E67" s="0" t="n">
+        <v>38400</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>3.450976</v>
+      </c>
+      <c r="G67" s="3" t="n">
+        <f aca="false">$C$53/F67</f>
+        <v>25425.8505419916</v>
+      </c>
+      <c r="H67" s="3" t="n">
+        <f aca="false">G67/E67</f>
+        <v>0.662131524531031</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E68" s="0" t="n">
+        <v>38400</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>3.451106</v>
+      </c>
+      <c r="G68" s="3" t="n">
+        <f aca="false">$C$53/F68</f>
+        <v>25424.8927735051</v>
+      </c>
+      <c r="H68" s="3" t="n">
+        <f aca="false">G68/E68</f>
+        <v>0.662106582643361</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
